--- a/results/2015年第4季.xlsx
+++ b/results/2015年第4季.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -737,6 +737,7584 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>87</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>568,880</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>483,604</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>118,517</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>116,007</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>247,969</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>-139,918</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>-774</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>245,951</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>618,053</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>1,319,585</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>3,417,246</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>41</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>5,481,997</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1,508,265</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>982,092</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>874,830</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1,987,724</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>-683,390</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>-51,192</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>1,767,170</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>4,974,612</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>6,979,397</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>32,384,241</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>46.45</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>6,998,915</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1,018,123</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>455,079</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>195,554</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>127,226</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>-2,233,583</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2,082,789</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>-1,598,272</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>17,616,760</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>18,904,724</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>46,186,336</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>253.5</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10,360,653</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1,869,109</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>951,535</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1,029,311</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3,152,284</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-139,852</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>-526,093</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>3,125,160</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>7,395,758</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>1,637,395</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>27,752,423</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>357.5</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>258,293</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>143,194</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92,906</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>80,672</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>145,824</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>-21,276</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>-120,000</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>138,932</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>151,788</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>44,766</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>1,207,028</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>115</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>17,434,791</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1,802,965</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1,037,721</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>890,711</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>697,311</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>-2,495,308</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>-1,949,851</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>-315,208</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>22,444,414</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>6,308,842</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>43,867,915</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1,238</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>-38</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-31,036</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-27,878</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-33,548</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>-158,802</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>11,298</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>-81,893</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>41,716</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>-1.01</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>-1.00</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>23,526</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>2,807,303</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>-0.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3,196,984</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1,319,248</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1,007,093</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>711,423</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2,009,850</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>-1,866,949</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>54,100</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>303,364</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>6,902,373</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>11,623,190</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>24,111,473</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1,321,960</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>239,221</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75,339</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>62,869</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>273,190</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>-75,559</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>-206,663</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>192,160</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>2,125,236</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>824,926</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>3,555,728</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>47.55</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>3,941,211</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>792,397</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>471,471</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>407,305</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2,083,929</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>-1,642,727</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>-685,539</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>521,245</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>14,235,937</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>14,992,303</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>38,479,344</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>24.05</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4,179,369</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>568,491</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>269,138</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>230,700</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>-88,935</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>-248,602</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>289,228</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>-337,729</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>4,459,642</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>3,564,948</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>9,644,227</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>4,675,621</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>-587,031</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>-991,288</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-59,316</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>-293,237</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>-663,751</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>735,741</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>-720,763</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>22,496,785</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>-0.11</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>16,279,497</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>75,754,803</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>14.45</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>340,085</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>75,734</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1,804</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4,933</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>118,927</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>-1,031</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>-27,394</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>118,296</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>573,902</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>526,677</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1,504,787</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>206.5</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>14,365,613</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5,209,973</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>293,739</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>279,707</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>-941,354</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>-407,441</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>-514,363</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>-1,370,690</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>19,450,288</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>8,819,333</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>24,362,679</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>562,237</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>116,518</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>35,056</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>25,508</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>16,232</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>-153,228</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>94,636</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>-145,995</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>2,113,718</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>1,631,371</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>3,210,401</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>22.05</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1,332,141</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>306,742</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>176,414</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>164,468</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>967,470</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>-85,016</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>-451,494</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>672,845</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>3,857,706</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>9,050,444</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>13,366,416</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2,469,728</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>709,836</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>53,431</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>31,694</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>10,292</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>-699,522</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>-23,711</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>6,518,501</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>1,821,679</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>13,852,445</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>607,790</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>162,306</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>32,456</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>35,370</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>37,053</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>21,562</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>15,875</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>327,543</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>157,927</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>868,888</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1,026,034</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>47,722</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>-82,587</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>-76,392</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>310,650</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>-397,651</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>59,727</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>-100,430</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>2,667,332</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>-1.30</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>-0.84</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>6,561,638</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>8,519,213</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>-0.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>333,839</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>26,158</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>-42,360</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>-43,946</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>58,856</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>-79,843</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>179,999</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>-62,353</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>742,522</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>-3.58</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>-2.28</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>677,350</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>1,944,709</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>-0.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>121,910</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>42,688</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>25,705</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>23,757</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>-16,820</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>-16,553</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>123,955</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>308,260</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>809,380</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>22.85</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>66,231</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>50,293</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>-17,561</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>-17,654</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>39,703</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>-13,557</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>18,538</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>36,136</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>148,009</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>-4.32</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>-3.18</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>135,728</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>548,352</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>-0.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1,112,497</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>368,154</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>300,710</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>272,295</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>428,206</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>-101,740</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>-30,953</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>324,065</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>879,634</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>1,357,356</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>4,070,578</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1,003,557</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>407,270</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>18,414</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>18,337</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>167,184</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>-124,986</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>-20,552</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>64,644</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>3,003,043</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>2,962,969</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>6,651,471</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>36.25</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>4,784,319</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>419,678</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>49,757</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>105,415</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>-43,554</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>102,299</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>-74,428</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>-65,907</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>3,303,945</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>3,875,007</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>7,702,801</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>5,218,269</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>324,684</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>-143,807</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>119,385</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>-115,410</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>-302,857</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>231,330</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>-159,138</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>13,134,150</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>5,099,989</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>20,603,925</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>9,524</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7,619</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>-39,144</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>-33,252</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>28,894</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>-458</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>21,552</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>22,991</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>569,900</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>12.85</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>5,296,784</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>383,535</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>220,677</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>192,722</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>-1,910,930</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>-202,921</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>449,682</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>-2,104,893</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>9,875,194</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>10,999,508</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>23,739,566</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1,159,147</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>329,774</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>189,134</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>151,779</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>170,095</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>101,298</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>384,490</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>166,874</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>1,204,611</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>943,990</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>3,553,222</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>749,564</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>184,354</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>67,379</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>60,882</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>35,896</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>-9,490</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>-163,727</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>29,529</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>1,246,312</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>207,074</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>2,718,074</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>22.65</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>6,096,505</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>494,716</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>-741,454</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>-422,389</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1,361,159</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>-168,862</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>-877,077</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>1,163,593</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>24,437,586</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>-2.22</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>-0.71</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>11,303,746</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>42,947,575</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>-0.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>151,943</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>26,708</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>19,030</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>-16,885</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>-47,531</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>-1,372</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>-120</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>-49,970</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>251,834</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>-0.65</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>-0.59</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>367,340</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>2,832,483</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>-0.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>106,072</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>22,020</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>408,782</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>62,993,821</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>74,291</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>-3,051,834</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>-1,632,498</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>14,088,473</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>-5,705,963</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>-6,948,475</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>7,080,922</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>357,414,183</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>-0.51</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>-0.14</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>448,688,581</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>678,139,016</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>-0.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2,012,001</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4,572</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>-54,436</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>-100,607</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>37,674</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>-405,321</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>285,640</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>-285,588</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>10,423,516</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>-2.68</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>-0.41</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>10,639,630</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>14,111,769</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>-0.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>703,490</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>-77,509</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>-93,777</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>-45,665</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>217,461</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>-16,974</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>-225,199</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>200,487</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>1,687,285</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>-1.58</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>-0.93</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>968,245</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>4,563,011</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>-0.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>420,780</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>235,288</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>64,516</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>53,534</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>62,893</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>-7,085</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>47,069</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>748,413</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>791,552</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>1,546,947</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>41.45</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>168,267</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>49,041</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>19,585</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4,965</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>8,359</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>-21,848</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>8,359</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>4,305,343</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>24,947</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>6,544,693</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>208,268</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>34,178</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>8,501</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4,655</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>59,660</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>-2,932</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>-37,338</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>56,755</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>227,831</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>274,475</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>1,038,048</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>14.95</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>412,425</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>98,593</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>43,905</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>44,171</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>84,694</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>17,069</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>-39,728</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>73,963</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>410,961</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>263,823</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>1,756,129</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>1,133,315</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>995,746</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>1,934,489</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>15.35</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>876,453</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>-31,718</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>-80,072</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>-126,342</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>22,392</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>-29,642</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>-37,716</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>1,254</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>1,611,670</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>-6.02</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>-3.30</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>864,297</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>3,646,890</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>-1.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>31.15</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>497,484</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>96,381</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>34,192</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>16,296</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>118,763</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>-99,498</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>-82,779</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>71,202</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>1,619,960</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>902,410</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>2,613,517</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>4,650,625</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1,262,247</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>-589,861</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>-783,593</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>45,130</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>531,925</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>382,070</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>-149,136</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>28,012,259</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>-8.64</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>-1.67</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>12,742,288</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>36,482,806</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>-1.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>727,455</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>216,910</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>-71,378</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>-37,462</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>358,524</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>-139,475</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>-134,284</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>290,456</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>5,300,589</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>-0.61</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>3,360,035</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>11,394,737</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>-0.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>95,515,928</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>30,128,919</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2,955,982</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2,235,503</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>11,274,517</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>470,958</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>-2,975,964</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>6,078,305</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>243,258,752</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>160,483,756</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>398,948,489</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2,884,556</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>36,206</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>-743,969</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>-953,911</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>936,780</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>503,366</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>-829,066</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>874,286</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>10,705,368</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>-4.60</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>-2.79</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>17,833,686</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>30,870,914</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>-0.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2,692,677</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>-77,807</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>-523,182</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>-1,518,756</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>801,243</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>274,441</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>-1,123,652</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>762,594</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>9,436,952</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>-6.05</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>-4.20</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>17,188,582</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>33,587,192</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>-0.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>81,463,607</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2,526,811</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>-2,897,968</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>-6,723,193</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>17,701,044</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>-10,143,513</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>-265,640</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>7,838,307</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>155,177,613</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>-2.84</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>-1.63</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>199,482,740</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>387,442,336</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>-0.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>10,354,866</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3,089,258</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1,859,832</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1,875,790</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>4,171,429</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>-670,100</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>-3,995,567</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>3,396,591</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>49,151,662</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>49,763,526</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>104,006,037</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>742,840</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>124,274</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>24,941</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>-3,327</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>208,976</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>-49,010</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>-138,284</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>205,483</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>9,109,404</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>-0.16</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>-0.25</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>2,881,183</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>11,123,674</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>86</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1,429,713,447</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>101,604,597</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>54,389,408</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>53,690,114</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>82,711,357</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>1,486,846</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>-61,270,739</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>50,944,687</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>1,247,908,798</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>336,738,466</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>2,308,299,877</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>6,136,124</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>172,374</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>59,513</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>49,963</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>1,524,414</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>-832,069</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>-582,932</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>1,506,849</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>13,834,576</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>1,412,405</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>23,054,481</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>18.35</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>13,353,059</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>6,656,895</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>1,464,663</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1,040,769</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>7,662,776</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>-1,004,781</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>-2,381,707</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>7,069,251</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>69,485,615</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>45,612,886</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>106,337,486</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1,745,401</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>814,243</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>495,492</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2,065,241</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>-814,687</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>-39,127</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>474,144</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>-833,040</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>23,380,650</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>1,886,846</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>56,584,993</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>137,215</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>23,394</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>8,715</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>16,412</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>62,531</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>-61,941</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>62,530</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>176,532</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>403,815</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>2,413,687</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>9,551,810</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2,394,184</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>951,923</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>899,633</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>2,758,230</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>-2,184,662</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>-83,213</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>1,657,233</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>26,729,921</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>16,149,813</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>49,117,676</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>27,483,081</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>8,608,056</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>4,278,605</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3,208,826</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>8,230,409</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>-3,628,086</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>-3,738,961</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>4,508,883</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>76,005,638</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>106,476,804</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>165,958,222</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>62,224,056</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>20,399,484</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>11,341,494</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>9,766,251</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>28,991,605</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>-18,092,231</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>-1,203,567</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>19,381,597</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>79,012,089</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>296,399,146</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>453,021,092</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>5,369,647</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>640,109</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>-47,679</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>-114,748</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>1,140,490</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>1,923,365</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>-2,302,516</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>1,093,384</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>5,902,826</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>-1.34</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>-0.72</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>2,896,490</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>14,313,914</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>-0.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>34,220</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>-37,228</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>-72,042</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>-165,135</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>-351,496</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>-116,080</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>358,348</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>-351,496</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>9,955,234</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>-1.83</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>-0.78</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>620</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>19,034,545</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>-0.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>150,296,287</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>13,679,175</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>11,111,878</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>12,525,354</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>38,720,227</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>-11,283,277</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>-10,028,877</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>36,537,578</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>158,743,760</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>132,287,324</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>425,467,474</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>1,431,040</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>388,278</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>41,068</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>31,624</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>237,944</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>-85,361</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>-156,303</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>111,236</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>4,423,448</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>4,265,256</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>9,912,905</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>79.3</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>1,472,641</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>850,190</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>125,688</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>40,663</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>474,706</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>-118,248</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>-224,735</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>354,306</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>6,771,309</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>2,074,686</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>15,501,941</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>6,121,319</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1,500,131</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>662,418</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>683,098</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>2,032,391</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>-981,549</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>-325,920</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>1,228,891</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>17,139,791</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>18,352,289</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>36,269,687</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>293.5</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>6,624,765</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1,250,897</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>256,154</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>899,637</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>-518,562</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>1,575,405</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>-676,004</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>9,223,857</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>1,936,231</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>31,179,035</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>1,043,208</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>296,292</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>175,546</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>-159,306</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>441,116</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>-557,950</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>56,379</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>-146,528</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>3,973,494</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>-3.10</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>-1.66</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>5,487,866</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>9,018,753</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>-0.89</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>30,672,953</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>-1,971,523</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>-3,371,674</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>-3,979,704</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>-1,228,819</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>-2,713,145</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>6,095,495</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>-1,738,917</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>131,357,605</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>-6.23</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>-1.91</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>107,619,180</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>192,652,207</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>-0.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>1,083,178</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>-34,560</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>-88,911</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>-44,418</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>404,655</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>-338,638</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>288,035</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>83,563</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>24,858,646</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>-0.46</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>31,772,545</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>34,571,137</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>-0.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>57,067,849</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>11,490,890</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>2,342,654</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2,114,972</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>2,693,330</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>-10,120,706</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>2,850,558</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>-5,106,955</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>258,368,119</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>148,141,804</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>518,765,122</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>245,037</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>27,172</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>11,585</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>15,623</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>-53,918</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>-10,923</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>74,123</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>-59,408</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>1,703,650</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>1,758,694</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>4,780,071</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>41.45</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>642,709</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>213,125</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>100,179</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>72,054</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>161,668</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>-8,415</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>-15,777</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>10,371</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>348,282</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>740,670</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>1,842,013</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>33,849,382</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>6,979,333</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>1,879,792</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3,071,094</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>15,428,422</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>-17,064,528</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>2,892,815</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>2,078,016</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>108,549,407</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>186,433,395</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>337,366,810</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2,065,310</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>316,313</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>144,673</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>121,198</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>989,123</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>-247,665</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>-658,244</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>788,574</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>4,806,832</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>4,584,056</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>9,914,853</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>331,914</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>52,860</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>-16,986</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>-644</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>143,848</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>-40,691</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>39,703</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>61,623</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>336,981</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>1,100,506</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>3,954,607</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>4,292,981</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1,140,735</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>624,719</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>462,555</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>2,282,523</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>-2,182,427</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>-371,487</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>1,117,939</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>18,074,983</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>25,689,164</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>40,432,136</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>94,211,179</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3,270,612</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>737,020</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>491,797</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>-3,646,086</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>-104,190</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>-7,561,477</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>-3,769,535</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>90,912,226</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>7,060,838</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>134,787,518</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>5,525,929</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>884,903</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>135,171</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>16,749</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>321,964</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>-6,888</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>2,623</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>254,327</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>5,124,664</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>3,605,461</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>9,665,020</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>44.25</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>10,935,932</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1,007,284</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>407,936</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>337,637</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>572,980</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>-647,633</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>-665,038</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>300,995</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>16,006,601</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>2,454,066</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>26,731,365</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>6,444,924</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>326,129</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>83,497</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>145,106</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>519,462</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>-31,798</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>-508,938</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>500,689</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>5,105,906</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>324,586</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>7,185,910</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>27.55</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>970,005</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>393,673</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>81,543</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>68,289</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>318,036</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>-75,831</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>-281,536</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>259,855</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>2,838,624</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>6,386,201</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>12,198,858</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>780,218</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>316,635</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>-110,503</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>-120,550</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>-123,999</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>-153,326</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>293,552</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>-289,816</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>5,988,814</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>-2.41</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>-0.97</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>7,444,735</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>10,920,043</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>-0.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>222.5</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>1,756,541</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>623,389</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>351,269</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>367,325</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>685,931</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>-417,614</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>-349,915</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>379,828</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>3,688,229</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>3,434,424</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>7,596,026</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>19.45</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>133,617</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>125,853</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>-90,562</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>-96,426</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>-70,875</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>-458,433</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>662,544</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>-715,329</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>3,443,897</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>-3.63</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>-1.70</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>3,909,466</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>6,281,762</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>-0.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>182</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>14,775,633</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3,371,529</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>1,615,135</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1,295,137</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>1,541,483</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>-811,585</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>-675,089</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>697,492</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>13,824,019</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>13,272,568</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>28,696,906</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>228</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>13,107,661</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2,912,582</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>791,928</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>845,204</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>-448,387</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>1,501,275</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>38,077</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>-662,796</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>25,547,574</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>7,652,305</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>45,953,463</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>12,475,214</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3,189,598</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>935,647</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>662,529</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>2,558,304</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>-3,657,913</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>92,296</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>1,929,759</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>33,001,748</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>15,018,217</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>84,434,252</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>903,602</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>115,025</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>8,947</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>7,308</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>227,881</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>20,312</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>-81,295</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>224,971</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>2,237,849</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>993,898</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>4,965,614</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>5,204,212</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1,066,783</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>332,381</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>328,421</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>764,613</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>-93,036</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>-712,876</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>570,642</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>12,718,833</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>5,966,714</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>34,628,912</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>234,298,355</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>9,053,910</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>3,084,278</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2,412,529</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>18,614,327</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>-1,950,080</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>-2,120,101</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>16,916,978</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>218,327,459</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>24,308,631</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>327,925,575</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>277</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>132,722,972</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>18,818,430</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>5,830,171</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4,661,232</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>-9,227,447</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>-387,443</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>-1,122,582</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>-9,448,326</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>164,176,927</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>9,042,789</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>333,604,873</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>34,213,662</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3,950,182</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>953,784</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>198,375</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>3,723,595</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>-244,675</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>-2,244,150</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>3,355,430</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>68,873,108</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>19,545,376</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>100,243,831</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>222</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>9,751,216</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>4,027,441</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>1,621,030</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1,352,152</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>2,018,920</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>-2,036,476</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>796,289</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>1,705,312</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>10,525,356</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>9,576,879</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>33,979,133</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>35.65</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>12,221,772</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1,714,769</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>79,528</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>325,225</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>597,788</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>-1,243,672</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>-4,756</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>508,844</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>10,687,214</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>4,022,766</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>33,240,633</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>197,310</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>67,711</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>27,542</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>26,654</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>8,127</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>156,488</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>-21,908</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>7,776</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>374,424</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>6,826</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>1,067,958</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>27</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2,073,568</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>183,021</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>56,366</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>51,142</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>522,491</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>-1,920</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>-362,062</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>522,102</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>2,911,659</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>375,200</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>4,860,404</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>283,813</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>259,680</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>6,582</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3,773</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>-56,521</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>-11,875</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>-59,177</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>352,050</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>61,606</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>2,060,356</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
